--- a/biology/Zoologie/Dendrobates_auratus/Dendrobates_auratus.xlsx
+++ b/biology/Zoologie/Dendrobates_auratus/Dendrobates_auratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrobates auratus est une espèce d'amphibiens de la famille des Dendrobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrobates auratus est une espèce d'amphibiens de la famille des Dendrobatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre de manière naturelle du niveau de la mer jusqu'à 1 000 m d'altitude dans le sud du Nicaragua, au Costa Rica, au Panama et dans le bassin du río Atrato en Colombie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre de manière naturelle du niveau de la mer jusqu'à 1 000 m d'altitude dans le sud du Nicaragua, au Costa Rica, au Panama et dans le bassin du río Atrato en Colombie.
 Elle a été introduite à Oahu à Hawaï.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrobates auratus vit dans la forêt tropicale humide.
 </t>
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 25,0 à 39,5 mm et les femelles de 27,0 à 42,0 mm[2].
-Dendrobates auratus a une espérance de vie de huit ans en captivité[2]. Elle atteint sa maturité sexuelle à l'âge de 12-15 mois et pond une douzaine d'œufs.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 25,0 à 39,5 mm et les femelles de 27,0 à 42,0 mm.
+Dendrobates auratus a une espérance de vie de huit ans en captivité. Elle atteint sa maturité sexuelle à l'âge de 12-15 mois et pond une douzaine d'œufs.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce consomme de petits arthropodes, comme des fourmis ou des acariens.
 </t>
@@ -637,9 +657,11 @@
           <t>Captivité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve cette espèce en terrariophilie[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve cette espèce en terrariophilie.
 </t>
         </is>
       </c>
@@ -668,7 +690,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Girard, 1855 "1854" : Abstract of a Report to Lieut. James M. Gilliss, U.S.N., upon the Reptiles collected during the U.S.N. Astronomical Expedition to Chili. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 7, p. 226–227  (texte intégral).</t>
         </is>
